--- a/SOFTWARE_ENGINEERING_PROJECT/SOFTWARE/MCAL_LAYER/DIO/DIO_TEST.xlsx
+++ b/SOFTWARE_ENGINEERING_PROJECT/SOFTWARE/MCAL_LAYER/DIO/DIO_TEST.xlsx
@@ -882,7 +882,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -919,33 +919,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -954,20 +930,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -978,305 +942,338 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1585,20 +1582,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="121" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="5" customWidth="1"/>
     <col min="7" max="7" width="47.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="15.75" thickBot="1"/>
@@ -1649,28 +1646,28 @@
     </row>
     <row r="7" spans="1:48" ht="15.75" thickTop="1"/>
     <row r="8" spans="1:48" s="2" customFormat="1" ht="15.75">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="118" t="s">
+      <c r="G8" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="58" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1678,846 +1675,846 @@
       <c r="A9" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:48" s="13" customFormat="1" ht="87" customHeight="1">
       <c r="A10" s="123"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="120"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45" t="s">
+      <c r="E10" s="72"/>
+      <c r="F10" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="47" t="s">
+      <c r="H10" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AT10" s="17"/>
+      <c r="AU10" s="17"/>
+      <c r="AV10" s="17"/>
     </row>
     <row r="11" spans="1:48" s="8" customFormat="1" ht="13.9" hidden="1" customHeight="1">
       <c r="A11" s="123"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="23"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
     </row>
     <row r="12" spans="1:48" s="8" customFormat="1" ht="13.9" hidden="1" customHeight="1">
       <c r="A12" s="123"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="55"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:48" s="12" customFormat="1" ht="64.900000000000006" customHeight="1">
       <c r="A13" s="123"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="56" t="s">
+      <c r="B13" s="120"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="36" t="s">
+      <c r="E13" s="72"/>
+      <c r="F13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:48" s="12" customFormat="1" ht="64.900000000000006" customHeight="1">
       <c r="A14" s="124"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="36" t="s">
+      <c r="B14" s="121"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="36" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:48" s="4" customFormat="1" ht="79.150000000000006" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="36" t="s">
+      <c r="G15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="13.9" hidden="1" customHeight="1">
-      <c r="A16" s="125"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="47"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:22" ht="1.1499999999999999" customHeight="1">
-      <c r="A17" s="125"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="47"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:22" ht="76.900000000000006" customHeight="1">
-      <c r="A18" s="125"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="63" t="s">
+      <c r="A18" s="118"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="65" t="s">
+      <c r="G18" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="8" customFormat="1" ht="126" customHeight="1">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="69" t="s">
+      <c r="G19" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="25"/>
+      <c r="V19" s="18"/>
     </row>
     <row r="20" spans="1:22" s="8" customFormat="1" ht="13.9" hidden="1" customHeight="1">
-      <c r="A20" s="127"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
     </row>
     <row r="21" spans="1:22" s="8" customFormat="1" ht="27.6" hidden="1" customHeight="1">
-      <c r="A21" s="127"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="25"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:22" s="8" customFormat="1" ht="96.6" hidden="1" customHeight="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="32"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="24"/>
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="1:22" s="12" customFormat="1" ht="96.6" customHeight="1">
-      <c r="A23" s="128"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="63" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="36" t="s">
+      <c r="G23" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
     </row>
     <row r="24" spans="1:22" ht="57" customHeight="1">
-      <c r="A24" s="129" t="s">
+      <c r="A24" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="75" t="s">
+      <c r="F24" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="G24" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="26"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:22" ht="13.9" hidden="1" customHeight="1">
-      <c r="A25" s="130"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="21"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:22" ht="27.6" hidden="1" customHeight="1">
-      <c r="A26" s="130"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="21"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="1:22" ht="13.9" hidden="1" customHeight="1">
-      <c r="A27" s="130"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="22"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:22" ht="81" customHeight="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="39" t="s">
+      <c r="A28" s="92"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="60"/>
-      <c r="F28" s="36" t="s">
+      <c r="E28" s="64"/>
+      <c r="F28" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="31" t="s">
         <v>83</v>
       </c>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:22" s="8" customFormat="1" ht="57" customHeight="1">
-      <c r="A29" s="132" t="s">
+      <c r="A29" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="81" t="s">
+      <c r="D29" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="82" t="s">
+      <c r="F29" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
     </row>
     <row r="30" spans="1:22" s="8" customFormat="1" ht="13.9" hidden="1" customHeight="1">
-      <c r="A30" s="133"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:22" s="8" customFormat="1" ht="13.9" hidden="1" customHeight="1">
-      <c r="A31" s="133"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="83"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:22" s="8" customFormat="1" ht="13.9" hidden="1" customHeight="1">
-      <c r="A32" s="133"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:26" s="12" customFormat="1" ht="64.900000000000006" customHeight="1">
-      <c r="A33" s="134"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="84" t="s">
+      <c r="A33" s="96"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="36" t="s">
+      <c r="E33" s="64"/>
+      <c r="F33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="36" t="s">
+      <c r="G33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="H33" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
     </row>
     <row r="34" spans="1:26" ht="71.45" customHeight="1">
       <c r="A34" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E34" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:26" ht="13.9" hidden="1" customHeight="1">
-      <c r="A35" s="127"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="86"/>
+      <c r="A35" s="106"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:26" ht="13.9" hidden="1" customHeight="1">
-      <c r="A36" s="127"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="86"/>
+      <c r="A36" s="106"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:26" ht="13.9" hidden="1" customHeight="1">
-      <c r="A37" s="127"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="86"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:26" ht="13.9" hidden="1" customHeight="1">
-      <c r="A38" s="127"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="86"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:26" ht="77.45" customHeight="1">
-      <c r="A39" s="128"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="36" t="s">
+      <c r="A39" s="107"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="36" t="s">
+      <c r="E39" s="73"/>
+      <c r="F39" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H39" s="47" t="s">
+      <c r="H39" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:26" s="8" customFormat="1" ht="37.15" customHeight="1">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="88" t="s">
+      <c r="B40" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="90" t="s">
+      <c r="D40" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="70" t="s">
+      <c r="H40" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
     </row>
     <row r="41" spans="1:26" s="8" customFormat="1" ht="46.9" customHeight="1">
-      <c r="A41" s="137"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
     </row>
     <row r="42" spans="1:26" s="8" customFormat="1" ht="84.6" customHeight="1">
-      <c r="A42" s="137"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="63" t="s">
+      <c r="A42" s="131"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="134"/>
+      <c r="D42" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="98"/>
-      <c r="F42" s="36" t="s">
+      <c r="E42" s="75"/>
+      <c r="F42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="99" t="s">
+      <c r="G42" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
     </row>
     <row r="43" spans="1:26" s="8" customFormat="1" ht="3.6" hidden="1" customHeight="1">
-      <c r="A43" s="137"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="103"/>
+      <c r="A43" s="131"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="52"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="138" t="s">
+      <c r="A44" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="136" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="76" t="s">
+      <c r="F44" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="76" t="s">
+      <c r="G44" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="H44" s="105" t="s">
+      <c r="H44" s="68" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:26" ht="75.599999999999994" customHeight="1">
-      <c r="A45" s="138"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="104"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="106"/>
+      <c r="A45" s="129"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="69"/>
     </row>
     <row r="46" spans="1:26" ht="115.15" customHeight="1">
-      <c r="A46" s="138"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="63" t="s">
+      <c r="A46" s="129"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="36" t="s">
+      <c r="E46" s="64"/>
+      <c r="F46" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G46" s="36" t="s">
+      <c r="G46" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="107"/>
+      <c r="H46" s="70"/>
     </row>
     <row r="47" spans="1:26" ht="54.6" hidden="1" customHeight="1">
-      <c r="A47" s="138"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="86"/>
+      <c r="A47" s="129"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:26" ht="96.6" customHeight="1">
-      <c r="A48" s="139" t="s">
+      <c r="A48" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="39" t="s">
+      <c r="F48" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G48" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="H48" s="111" t="s">
+      <c r="H48" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="74"/>
+      <c r="S48" s="74"/>
+      <c r="T48" s="74"/>
+      <c r="U48" s="74"/>
+      <c r="V48" s="74"/>
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="74"/>
     </row>
     <row r="49" spans="1:26" ht="94.15" customHeight="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="113" t="s">
+      <c r="A49" s="86"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="114"/>
-      <c r="F49" s="39" t="s">
+      <c r="E49" s="89"/>
+      <c r="F49" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H49" s="115" t="s">
+      <c r="H49" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="20"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="74"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
     </row>
     <row r="50" spans="1:26">
       <c r="C50" s="3"/>
@@ -2526,17 +2523,17 @@
       <c r="G50"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="138"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="140"/>
     </row>
     <row r="53" spans="1:26" ht="18.75">
-      <c r="A53" s="141" t="s">
+      <c r="A53" s="63" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="15">
@@ -2544,7 +2541,7 @@
       </c>
     </row>
     <row r="54" spans="1:26" ht="18.75">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="63" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="15">
@@ -2552,7 +2549,7 @@
       </c>
     </row>
     <row r="55" spans="1:26" ht="18.75">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="63" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="15">
@@ -2560,7 +2557,7 @@
       </c>
     </row>
     <row r="56" spans="1:26" ht="18.75">
-      <c r="A56" s="141" t="s">
+      <c r="A56" s="63" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="15">
@@ -2569,11 +2566,50 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="C29:C33"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="E9:E14"/>
-    <mergeCell ref="Y48:Y49"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="Z48:Z49"/>
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="H40:H42"/>
@@ -2590,61 +2626,22 @@
     <mergeCell ref="J48:J49"/>
     <mergeCell ref="K48:K49"/>
     <mergeCell ref="L48:L49"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="E9:E14"/>
+    <mergeCell ref="Y48:Y49"/>
     <mergeCell ref="M48:M49"/>
     <mergeCell ref="N48:N49"/>
     <mergeCell ref="I24:I27"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="H19:H22"/>
-    <mergeCell ref="D24:D27"/>
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="G24:G27"/>
     <mergeCell ref="H24:H27"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A9:A14"/>
     <mergeCell ref="E34:E39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="A51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
